--- a/biology/Biochimie/Canal_sodium/Canal_sodium.xlsx
+++ b/biology/Biochimie/Canal_sodium/Canal_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un canal sodium, ou sodique, est un canal ionique spécifique aux ions sodium. Il en existe de plusieurs types. Le premier à avoir été décrit est le canal sodique du potentiel d'action, responsable entre autres de la dépolarisation du neurone et du myocyte, de la propagation du signal nerveux et de la propagation de l'activation électrique du myocarde.
 Il faut différencier les canaux sodium stricts des canaux perméants aux cations, c’est-à-dire principalement sodium et potassium. À la différence de ces derniers, les canaux sodium sont imperméables aux ions potassium.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Système nerveux central
-Les cellules excitables du système nerveux central maintiennent de façon active (c’est-à-dire en consommant de l'énergie) une différence de potentiel d'environ −70 mV entre les milieux intra- et extracellulaires.
+          <t>Système nerveux central</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les cellules excitables du système nerveux central maintiennent de façon active (c’est-à-dire en consommant de l'énergie) une différence de potentiel d'environ −70 mV entre les milieux intra- et extracellulaires.
 Des protéines spécialisées permettent d'inverser la polarité de ces cellules dans le but de propager un influx le long de la cellule sous forme d'un potentiel d'action (PA).
 Certaines classes de canaux sodium (canaux sodium dépendants du voltage, ou VOC Na+ [Voltage-Operated Channels]) présentent ces propriétés.
 Ces canaux sont des hétérotrimères αβ1β2. Seule la sous-unité α est indispensable à l'activité électrique, mais les sous-unités β stabilisent le canal.
@@ -537,38 +554,392 @@
 Site 5 : fixation de ciguatoxine. Surtout sur les canaux Na+ du tube digestif  : diarrhées
 Site 6 : fixation de delta-conotoxines. Effet identique aux toxines α	de scorpion
 Site 7 : fixation des anesthésiques locaux (système nerveux périphérique)
-Site 8 : absent chez l'homme, uniquement chez l'insecte. Fixation des pyréthrinoïdes
-Régulation des canaux sodium par des voies de signalisation cellulaire
-La régulation des canaux sodium peuvent se faire par modification post-traductionnelle comme les protéines kinases qui ont une action par phosphorylation sur les canaux sodiques :
+Site 8 : absent chez l'homme, uniquement chez l'insecte. Fixation des pyréthrinoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régulation des canaux sodium par des voies de signalisation cellulaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La régulation des canaux sodium peuvent se faire par modification post-traductionnelle comme les protéines kinases qui ont une action par phosphorylation sur les canaux sodiques :
 Protéine kinase A : le ligand se fixe sur le récepteur à protéine G qui transforme un GTP en GDP ce qui induit la synthèse d'AMPc ce qui active la protéine kinase A qui entraine une phosphorylation des canaux sodiques. La phosphorylation induit une augmentation ou une diminution de l'amplitude du courant sodique.
 Protéine kinase C :  le ligand se fixe sur le récepteur à protéine G ce qui entraine la phospholipase C β qui induit une libération de DAG et IP3. DAG active la protéine kinase C qui induit une phosphorylation du canal sodique qui ralentit son inactivation.
 Protéine kinase II : Par voie de la calcium-calmoduline qui entraine une accélération de l'inactivation du canal sodique.
-Protéine kinase G : Par voie de la guanynyl cyclase qui entraine une inhibition des canaux.
-Cibles thérapeutiques
-Les canaux sodium sont des cibles thérapeutiques de premier choix. Ils sont la cible de bon nombre d'antiarythmiques, d'antiépileptiques ainsi que de certains anesthésiques locaux. Certains insecticides utilisent également des inhibiteurs des canaux sodium.
-Insecticides
-Chrysanthème
-Certaines molécules sont naturelles, extraites du chrysanthème comme la pyréthrine, mais d'autres molécules sont synthétisées comme le dichlorodiphényltrichloroéthane. Ces insecticides ralentissent l'inactivation des canaux et augmentent leur probabilité d'ouverture ce qui induit une dépolarisation. Ils préviennent l'inactivation des canaux en empêchant la fermeture de la porte d'inactivation du canal ce qui empêche la repolarisation membranaire, provoquant une hyperexcitabilité des nerfs et ainsi une paralysie excitatrice, mortelle chez l'insecte.
-Anesthésiques locaux
-Principalement la lidocaïne qui bloque les influx ioniques en maintenant les canaux dans un état inactivé. Ainsi l'influx nerveux n'est plus possible.
-Anti-arythmiques
-Ils freinent la vitesse de dépolarisation et ralentissent la conduction de l'influx au niveau des cellules myocardiques. Diminution de l'entrée de sodium.
+Protéine kinase G : Par voie de la guanynyl cyclase qui entraine une inhibition des canaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cibles thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canaux sodium sont des cibles thérapeutiques de premier choix. Ils sont la cible de bon nombre d'antiarythmiques, d'antiépileptiques ainsi que de certains anesthésiques locaux. Certains insecticides utilisent également des inhibiteurs des canaux sodium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cibles thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chrysanthème</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines molécules sont naturelles, extraites du chrysanthème comme la pyréthrine, mais d'autres molécules sont synthétisées comme le dichlorodiphényltrichloroéthane. Ces insecticides ralentissent l'inactivation des canaux et augmentent leur probabilité d'ouverture ce qui induit une dépolarisation. Ils préviennent l'inactivation des canaux en empêchant la fermeture de la porte d'inactivation du canal ce qui empêche la repolarisation membranaire, provoquant une hyperexcitabilité des nerfs et ainsi une paralysie excitatrice, mortelle chez l'insecte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement la lidocaïne qui bloque les influx ioniques en maintenant les canaux dans un état inactivé. Ainsi l'influx nerveux n'est plus possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Anti-arythmiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ils freinent la vitesse de dépolarisation et ralentissent la conduction de l'influx au niveau des cellules myocardiques. Diminution de l'entrée de sodium.
 Ils sont répartis en 3 classes :
 Quinidine, disopyramide : entraine également un léger blocage des canaux potassiques
 Lidocaïne, méxilétine, phénytoïne
-Flécaïnide, propafénone, cibenzoline : entrainent un faible blocage additionnel sur les canaux potassiques
-Anti-épileptiques
-Principalement phénytoïne, carbamazépine, oxcarbazépine
+Flécaïnide, propafénone, cibenzoline : entrainent un faible blocage additionnel sur les canaux potassiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anti-épileptiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Principalement phénytoïne, carbamazépine, oxcarbazépine
 Stabilisent les membranes du neurone devenu hyperexcitable en bloquant les flux sodiques. Ces molécules ont une liaison préférentielle à la forme inactive des canaux sodium.
-Cœur
-Le comportement des canaux sodiques du myocarde est très semblable à celui du système nerveux. La sous-unité alpha la plus abondante dans le myocarde est le Nav1.5.
-Épithéliums
-Le canal sodium de la membrane apicale des cellules épithéliales est appelé ENaC, pour Epithelial Na Channel. Il présente la spécificité d'être inhibé par l'amiloride. Il est responsable du transport par l'épithélium de sodium. Les épithéliums concernés sont les épithéliums pulmonaires, rénaux, coliques distaux, ainsi que plusieurs glandes exocrines, telles que les glandes salivaires ou les glandes sudoripares. Ce canal est impliqué dans certaines formes d'hypertension ainsi que, peut-être, dans la mucoviscidose. Ce canal est aussi présent dans les cellules papillaires fongiformes de la partie antérieure de la langue, où il est responsable de la transduction du goût salé et du goût acide.
-Structure moléculaire
-Le canal ENaC est formé à partir de trois sous-unités de poids moléculaires allant de 60 à 75 kDa : α (alpha), β (bêta) et γ (gamma) codées par trois gènes localisés sur les chromosomes 12 et 16. Chaque sous-unité est composée de deux segments transmembranaires, d'une large partie extracellulaire comportant des sites de glycosylation, ainsi que d'une partie intracellulaire formée par les extrémités N et C-terminales comportant des sites de régulation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cœur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comportement des canaux sodiques du myocarde est très semblable à celui du système nerveux. La sous-unité alpha la plus abondante dans le myocarde est le Nav1.5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Épithéliums</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canal sodium de la membrane apicale des cellules épithéliales est appelé ENaC, pour Epithelial Na Channel. Il présente la spécificité d'être inhibé par l'amiloride. Il est responsable du transport par l'épithélium de sodium. Les épithéliums concernés sont les épithéliums pulmonaires, rénaux, coliques distaux, ainsi que plusieurs glandes exocrines, telles que les glandes salivaires ou les glandes sudoripares. Ce canal est impliqué dans certaines formes d'hypertension ainsi que, peut-être, dans la mucoviscidose. Ce canal est aussi présent dans les cellules papillaires fongiformes de la partie antérieure de la langue, où il est responsable de la transduction du goût salé et du goût acide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Épithéliums</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Structure moléculaire</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canal ENaC est formé à partir de trois sous-unités de poids moléculaires allant de 60 à 75 kDa : α (alpha), β (bêta) et γ (gamma) codées par trois gènes localisés sur les chromosomes 12 et 16. Chaque sous-unité est composée de deux segments transmembranaires, d'une large partie extracellulaire comportant des sites de glycosylation, ainsi que d'une partie intracellulaire formée par les extrémités N et C-terminales comportant des sites de régulation.
 Seule la sous-unité α peut former des canaux fonctionnels complets. Les sous-unités β et γ s'associent avec la sous-unité α pour donner des canaux aux propriétés biophysiques modifiées.
-Autres
-SCN10A</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Canal_sodium</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canal_sodium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Différents types de canaux sodium</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SCN10A</t>
         </is>
       </c>
     </row>
